--- a/medicine/Mort/Cimetière_de_Joinville-le-Pont/Cimetière_de_Joinville-le-Pont.xlsx
+++ b/medicine/Mort/Cimetière_de_Joinville-le-Pont/Cimetière_de_Joinville-le-Pont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Joinville-le-Pont</t>
+          <t>Cimetière_de_Joinville-le-Pont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Joinville-le-Pont est un cimetière communal se trouvant à Joinville-le-Pont dans le Val-de-Marne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Joinville-le-Pont</t>
+          <t>Cimetière_de_Joinville-le-Pont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’accès se fait actuellement par l’avenue des Familles, voie du quartier de Palissy. Lors de sa création, on venait au cimetière par la rue du Cimetière (actuellement rue de l’Égalité[1]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’accès se fait actuellement par l’avenue des Familles, voie du quartier de Palissy. Lors de sa création, on venait au cimetière par la rue du Cimetière (actuellement rue de l’Égalité).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Joinville-le-Pont</t>
+          <t>Cimetière_de_Joinville-le-Pont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 1790, la commune de La Branche-du-Pont-de-Saint-Maur n’avait ni église, ni cimetière et partageait ces deux équipements avec la commune de Saint-Maur-des-Fossés[2].
-L’église fut érigée en 1860[3] et le cimetière fondé en 1863[4]. Plusieurs agrandissements ont été réalisés, en 1911[5] puis en 1944 [6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1790, la commune de La Branche-du-Pont-de-Saint-Maur n’avait ni église, ni cimetière et partageait ces deux équipements avec la commune de Saint-Maur-des-Fossés.
+L’église fut érigée en 1860 et le cimetière fondé en 1863. Plusieurs agrandissements ont été réalisés, en 1911 puis en 1944 .
 La commune est adhérente au Syndicat intercommunal funéraire de la région parisienne.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Joinville-le-Pont</t>
+          <t>Cimetière_de_Joinville-le-Pont</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Aubry (1931-2014), maire de Joinville-le-Pont (1983-2008), député (1997-2002)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pierre Aubry (1931-2014), maire de Joinville-le-Pont (1983-2008), député (1997-2002)
 Camille Bainville (1832-1909), écrivain
 Joseph Belbéoch (1895-1944), ouvrier, résistant, tué lors des combats de la Libération
 Roger Belbéoch (1921-2010), policier, résistant, reconnu Juste parmi les nations
@@ -590,11 +608,45 @@
 Jean-Louis Pariselle (1917-2008), sculpteur français
 Pierre Prévert (1906-1988), cinéaste
 Pierre Schaken (1793-1870), ingénieur franco-belge, pionnier des chemins de fer[Note 1]
-Henri Vel-Durand (1867-1928), maire de Joinville-le-Pont (1919-1928)
-Monuments funéraires
-Il s'y trouve une tombe collective des morts français de la guerre de 1870[7] et une autre pour les soldats allemands tombés en 1870-1871 avec l'inscription "Deutscher soldat".
-Le monument aux morts communal a été implanté dans le cimetière[8]. Il est l’œuvre du sculpteur français Georges Delpérier, dont la famille a vécu à Joinville-le-Pont [9]. Il comporte 475 noms[10].
-Dans le Carré militaire du cimetière communal, 86 personnes sont enterrées[10]. Il comporte également des tombes de soldats canadiens, morts à l’hôpital canadien, installé sur le territoire de Joinville-le-Pont dans le Bois de Vincennes pendant la première guerre mondiale[11] ; 14 personnes sont inhumées dans cet espace[10]. 
+Henri Vel-Durand (1867-1928), maire de Joinville-le-Pont (1919-1928)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Joinville-le-Pont</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Joinville-le-Pont</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monuments funéraires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'y trouve une tombe collective des morts français de la guerre de 1870 et une autre pour les soldats allemands tombés en 1870-1871 avec l'inscription "Deutscher soldat".
+Le monument aux morts communal a été implanté dans le cimetière. Il est l’œuvre du sculpteur français Georges Delpérier, dont la famille a vécu à Joinville-le-Pont . Il comporte 475 noms.
+Dans le Carré militaire du cimetière communal, 86 personnes sont enterrées. Il comporte également des tombes de soldats canadiens, morts à l’hôpital canadien, installé sur le territoire de Joinville-le-Pont dans le Bois de Vincennes pendant la première guerre mondiale ; 14 personnes sont inhumées dans cet espace. 
 </t>
         </is>
       </c>
